--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,88 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>falling</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -127,9 +130,6 @@
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -151,199 +151,208 @@
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>wish</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>super</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>god</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>closing</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>employees</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -701,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +721,7 @@
         <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>42</v>
@@ -820,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8356164383561644</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>43</v>
@@ -870,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +953,13 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K7">
-        <v>0.9473684210526315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1020,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K9">
-        <v>0.9444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K10">
-        <v>0.9333333333333333</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1220,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12">
-        <v>0.9086161879895561</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L12">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6349206349206349</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.8828125</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6333333333333333</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,37 +1479,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>13</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K17">
-        <v>0.86875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L17">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.8679245283018868</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5310077519379846</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K19">
-        <v>0.8636363636363636</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4516129032258064</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K20">
-        <v>0.8620689655172413</v>
+        <v>0.8515625</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4509803921568628</v>
+        <v>0.475</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1688,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>0.8450704225352113</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L21">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1712,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1720,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.423728813559322</v>
+        <v>0.40625</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K22">
-        <v>0.8372093023255814</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.40625</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>62</v>
@@ -1820,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.348993288590604</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K24">
-        <v>0.8214285714285714</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3733333333333334</v>
+        <v>0.32</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K25">
-        <v>0.8181818181818182</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3624161073825503</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K26">
-        <v>0.8170731707317073</v>
+        <v>0.8</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.325</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1988,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.8</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2545454545454545</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K28">
-        <v>0.8095238095238095</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2062,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.1625</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>68</v>
@@ -2097,10 +2106,10 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1111111111111111</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2138,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K30">
-        <v>0.7894736842105263</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2162,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2179,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08042895442359249</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>343</v>
+        <v>220</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K31">
-        <v>0.7647058823529411</v>
+        <v>0.78</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2212,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.06333333333333334</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K32">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2262,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,37 +2279,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01064516129032258</v>
+        <v>0.0203751617076326</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E33">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F33">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>3067</v>
+        <v>3029</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2312,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,37 +2329,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008434864104967198</v>
+        <v>0.01275389702409069</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E34">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="F34">
-        <v>0.6699999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K34">
-        <v>0.7428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2362,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,37 +2379,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004424778761061947</v>
+        <v>0.006986344871387742</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E35">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F35">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3150</v>
+        <v>3127</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K35">
-        <v>0.74</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2412,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2420,13 +2429,13 @@
         <v>75</v>
       </c>
       <c r="K36">
-        <v>0.7368421052631579</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2438,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2446,13 +2455,13 @@
         <v>76</v>
       </c>
       <c r="K37">
-        <v>0.725</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2464,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2472,13 +2481,13 @@
         <v>77</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L38">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2487,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2498,25 +2507,25 @@
         <v>78</v>
       </c>
       <c r="K39">
-        <v>0.711764705882353</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="M39">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2524,13 +2533,13 @@
         <v>79</v>
       </c>
       <c r="K40">
-        <v>0.6903765690376569</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L40">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="M40">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2542,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2550,13 +2559,13 @@
         <v>80</v>
       </c>
       <c r="K41">
-        <v>0.6666666666666666</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2568,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2576,13 +2585,13 @@
         <v>81</v>
       </c>
       <c r="K42">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2594,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2602,13 +2611,13 @@
         <v>82</v>
       </c>
       <c r="K43">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2628,13 +2637,13 @@
         <v>83</v>
       </c>
       <c r="K44">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2646,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2654,13 +2663,13 @@
         <v>84</v>
       </c>
       <c r="K45">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2672,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2680,13 +2689,13 @@
         <v>85</v>
       </c>
       <c r="K46">
-        <v>0.648936170212766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2698,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2706,13 +2715,13 @@
         <v>86</v>
       </c>
       <c r="K47">
-        <v>0.6461538461538462</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2724,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2732,13 +2741,13 @@
         <v>87</v>
       </c>
       <c r="K48">
-        <v>0.6428571428571429</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2750,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2758,13 +2767,13 @@
         <v>88</v>
       </c>
       <c r="K49">
-        <v>0.6404494382022472</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2776,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2784,13 +2793,13 @@
         <v>89</v>
       </c>
       <c r="K50">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2802,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2810,13 +2819,13 @@
         <v>90</v>
       </c>
       <c r="K51">
-        <v>0.6078431372549019</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2828,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2836,13 +2845,13 @@
         <v>91</v>
       </c>
       <c r="K52">
-        <v>0.5925925925925926</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2854,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2862,13 +2871,13 @@
         <v>92</v>
       </c>
       <c r="K53">
-        <v>0.5833333333333334</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2880,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2888,13 +2897,13 @@
         <v>93</v>
       </c>
       <c r="K54">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2906,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2914,13 +2923,13 @@
         <v>94</v>
       </c>
       <c r="K55">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2932,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2940,13 +2949,13 @@
         <v>95</v>
       </c>
       <c r="K56">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2958,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2966,7 +2975,7 @@
         <v>96</v>
       </c>
       <c r="K57">
-        <v>0.5357142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L57">
         <v>15</v>
@@ -2984,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2992,13 +3001,13 @@
         <v>97</v>
       </c>
       <c r="K58">
-        <v>0.5342465753424658</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L58">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3010,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3018,13 +3027,13 @@
         <v>98</v>
       </c>
       <c r="K59">
-        <v>0.5161290322580645</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3036,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3044,13 +3053,13 @@
         <v>99</v>
       </c>
       <c r="K60">
-        <v>0.4487179487179487</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3062,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3070,25 +3079,25 @@
         <v>100</v>
       </c>
       <c r="K61">
-        <v>0.4385964912280702</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>25</v>
-      </c>
-      <c r="M61">
-        <v>25</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>32</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3096,13 +3105,13 @@
         <v>101</v>
       </c>
       <c r="K62">
-        <v>0.4117647058823529</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3114,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3122,13 +3131,13 @@
         <v>102</v>
       </c>
       <c r="K63">
-        <v>0.4</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3140,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3148,13 +3157,13 @@
         <v>103</v>
       </c>
       <c r="K64">
-        <v>0.3728813559322034</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3166,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3174,13 +3183,13 @@
         <v>104</v>
       </c>
       <c r="K65">
-        <v>0.359375</v>
+        <v>0.328125</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3192,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3200,13 +3209,13 @@
         <v>105</v>
       </c>
       <c r="K66">
-        <v>0.2295081967213115</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3218,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3226,13 +3235,13 @@
         <v>106</v>
       </c>
       <c r="K67">
-        <v>0.1805555555555556</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3244,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3252,13 +3261,13 @@
         <v>107</v>
       </c>
       <c r="K68">
-        <v>0.1451612903225807</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3270,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3278,13 +3287,13 @@
         <v>108</v>
       </c>
       <c r="K69">
-        <v>0.06168831168831169</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3296,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>289</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3304,13 +3313,13 @@
         <v>109</v>
       </c>
       <c r="K70">
-        <v>0.04807692307692308</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3322,33 +3331,163 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>396</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K71">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>21</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K72">
+        <v>0.04567307692307692</v>
+      </c>
+      <c r="L72">
+        <v>19</v>
+      </c>
+      <c r="M72">
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K71">
-        <v>0.01160966426106056</v>
-      </c>
-      <c r="L71">
-        <v>37</v>
-      </c>
-      <c r="M71">
-        <v>51</v>
-      </c>
-      <c r="N71">
-        <v>0.73</v>
-      </c>
-      <c r="O71">
-        <v>0.27</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>3150</v>
+      <c r="K73">
+        <v>0.01635734507706826</v>
+      </c>
+      <c r="L73">
+        <v>52</v>
+      </c>
+      <c r="M73">
+        <v>74</v>
+      </c>
+      <c r="N73">
+        <v>0.7</v>
+      </c>
+      <c r="O73">
+        <v>0.3</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K74">
+        <v>0.01447661469933185</v>
+      </c>
+      <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
+        <v>16</v>
+      </c>
+      <c r="N74">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O74">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75">
+        <v>0.01228733459357278</v>
+      </c>
+      <c r="L75">
+        <v>26</v>
+      </c>
+      <c r="M75">
+        <v>53</v>
+      </c>
+      <c r="N75">
+        <v>0.49</v>
+      </c>
+      <c r="O75">
+        <v>0.51</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76">
+        <v>0.00492772667542707</v>
+      </c>
+      <c r="L76">
+        <v>15</v>
+      </c>
+      <c r="M76">
+        <v>78</v>
+      </c>
+      <c r="N76">
+        <v>0.19</v>
+      </c>
+      <c r="O76">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3029</v>
       </c>
     </row>
   </sheetData>
